--- a/content/dadesref/entitats/Paisos_ISOA2.xlsx
+++ b/content/dadesref/entitats/Paisos_ISOA2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/03.Paisos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{0A0CE35E-2A98-43D2-B945-608DEE242061}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{34E553D5-D934-4B81-AEFE-47E0E6800E1C}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{0A0CE35E-2A98-43D2-B945-608DEE242061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B58C7673-84E3-49F0-A947-A9B4C73A3A46}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Països_ISOA2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1124">
   <si>
     <t>Continent Codi</t>
   </si>
@@ -2452,6 +2457,957 @@
   </si>
   <si>
     <t>Paisos_ISOA2</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Afganistán</t>
+  </si>
+  <si>
+    <t>Islas Aland</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Alemania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antártida</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Antigua y Barbuda</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Arabia Saudí</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas (the)</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>Belice</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhután</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Bosnia y Herzegovina</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Camboya</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros (the)</t>
+  </si>
+  <si>
+    <t>Congo (the)</t>
+  </si>
+  <si>
+    <t>Korea (the Democratic People's Republic of)</t>
+  </si>
+  <si>
+    <t>Korea (the Republic of)</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Costa de Marfil</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Croacia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>United Arab Emirates (the)</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>United States of America (the)</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Swazilandia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Faroe Islands (the)</t>
+  </si>
+  <si>
+    <t>Islas Feroe</t>
+  </si>
+  <si>
+    <t>Philippines (the)</t>
+  </si>
+  <si>
+    <t>Filipinas</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Finlandia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Gabón</t>
+  </si>
+  <si>
+    <t>Gambia (the)</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Groenlandia</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Guinea Ecuatorial</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Hungría</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Isla Bouvet</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Isla de Man</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Isla Norfolk</t>
+  </si>
+  <si>
+    <t>Cayman Islands (the)</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands (the)</t>
+  </si>
+  <si>
+    <t>Cook Islands (the)</t>
+  </si>
+  <si>
+    <t>Islas Cook</t>
+  </si>
+  <si>
+    <t>Falkland Islands (the) [Malvinas]</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands (the)</t>
+  </si>
+  <si>
+    <t>Marshall Islands (the)</t>
+  </si>
+  <si>
+    <t>Islas Marshall</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands (the)</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Islas Salomón</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands (the)</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Islas Vírgenes Británicas</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Irán</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Islandia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japón</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Jordania</t>
+  </si>
+  <si>
+    <t>Kazajstán</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic (the)</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Libia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Lituania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Luxemburgo</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Malasia</t>
+  </si>
+  <si>
+    <t>Maldivas</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Moldova (the Republic of)</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mónaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Niger (the)</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Nueva Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nueva Zelanda</t>
+  </si>
+  <si>
+    <t>Omán</t>
+  </si>
+  <si>
+    <t>Netherlands (Kingdom of the)</t>
+  </si>
+  <si>
+    <t>Países Bajos</t>
+  </si>
+  <si>
+    <t>Pakistán</t>
+  </si>
+  <si>
+    <t>Palestine, State of</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Islas Pitcairn</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Polinesia Francesa</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
+  </si>
+  <si>
+    <t>Central African Republic (the)</t>
+  </si>
+  <si>
+    <t>Congo (the Democratic Republic of the)</t>
+  </si>
+  <si>
+    <t>República Democrática del Congo</t>
+  </si>
+  <si>
+    <t>Dominican Republic (the)</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Reunión</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Russian Federation (the)</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>Western Sahara*</t>
+  </si>
+  <si>
+    <t>Sahara Occidental</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Holy See (the)</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sierra Leona</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic (the)</t>
+  </si>
+  <si>
+    <t>Siria</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Sudáfrica</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Sudán del Sur</t>
+  </si>
+  <si>
+    <t>Sudan (the)</t>
+  </si>
+  <si>
+    <t>Sudán</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Suecia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tailandia</t>
+  </si>
+  <si>
+    <t>Taiwan (Province of China)</t>
+  </si>
+  <si>
+    <t>Tanzania, the United Republic of</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>French Southern Territories (the)</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory (the)</t>
+  </si>
+  <si>
+    <t>Timor Oriental</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Trinidad y Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>República Checa</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Ucrania</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>Nom en anglès</t>
+  </si>
+  <si>
+    <t>Nom en castellà</t>
+  </si>
+  <si>
+    <t>Otros/Varios</t>
+  </si>
+  <si>
+    <t>It is not listed</t>
+  </si>
+  <si>
+    <t>Other/Various</t>
+  </si>
+  <si>
+    <t>Azerbaiyán</t>
+  </si>
+  <si>
+    <t>Bahréin</t>
+  </si>
+  <si>
+    <t>Bermudas</t>
+  </si>
+  <si>
+    <t>Bonaire, San Eustaquio y Saba</t>
+  </si>
+  <si>
+    <t>Comores</t>
+  </si>
+  <si>
+    <t>Corea del Norte</t>
+  </si>
+  <si>
+    <t>Corea</t>
+  </si>
+  <si>
+    <t>Curazao</t>
+  </si>
+  <si>
+    <t>República Eslovaca</t>
+  </si>
+  <si>
+    <t>Estados Unidos de América</t>
+  </si>
+  <si>
+    <t>Etiopía</t>
+  </si>
+  <si>
+    <t>Guayana Francesa</t>
+  </si>
+  <si>
+    <t>Guernesey</t>
+  </si>
+  <si>
+    <t>Isla de Navidad</t>
+  </si>
+  <si>
+    <t>Islas Caimán</t>
+  </si>
+  <si>
+    <t>Islas Cocos (Keeling)​</t>
+  </si>
+  <si>
+    <t>Islas Malvinas</t>
+  </si>
+  <si>
+    <t>Islas Georgias del Sur y Sandwich del Sur</t>
+  </si>
+  <si>
+    <t>Islas Heard y McDonald</t>
+  </si>
+  <si>
+    <t>Islas Marianas del Norte</t>
+  </si>
+  <si>
+    <t>Islas menores alejadas de los Estados Unidos</t>
+  </si>
+  <si>
+    <t>Islas Turcas y Caicos</t>
+  </si>
+  <si>
+    <t>Islas Vírgenes de los Estados Unidos</t>
+  </si>
+  <si>
+    <t>Kirguistán</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Palaos</t>
+  </si>
+  <si>
+    <t>Palestina. Estado Observador, no miembro de Naciones Unidas</t>
+  </si>
+  <si>
+    <t>Papúa Nueva Guinea</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>República Centroafricana</t>
+  </si>
+  <si>
+    <t>Rumanía</t>
+  </si>
+  <si>
+    <t>Santa Helena</t>
+  </si>
+  <si>
+    <t>San Cristóbal y Nieves</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>San Vicente y las Granadinas</t>
+  </si>
+  <si>
+    <t>San Bartolomé</t>
+  </si>
+  <si>
+    <t>San Martín (parte francesa)</t>
+  </si>
+  <si>
+    <t>San Pedro y Miquelón</t>
+  </si>
+  <si>
+    <t>Santa Sede</t>
+  </si>
+  <si>
+    <t>Santo Tomé y Príncipe</t>
+  </si>
+  <si>
+    <t>San Martín (parte neerlandesa)</t>
+  </si>
+  <si>
+    <t>Svalbard y Jan Mayen</t>
+  </si>
+  <si>
+    <t>Tayikistán</t>
+  </si>
+  <si>
+    <t>Taiwán</t>
+  </si>
+  <si>
+    <t>Tierras Australes y Antárticas Francesas</t>
+  </si>
+  <si>
+    <t>Territorio Británico del Océano Índico</t>
+  </si>
+  <si>
+    <t>Túnez</t>
+  </si>
+  <si>
+    <t>Turkmenistán</t>
+  </si>
+  <si>
+    <t>Turquía</t>
+  </si>
+  <si>
+    <t>Uzbekistán</t>
+  </si>
+  <si>
+    <t>Wallis y Fortuna</t>
   </si>
 </sst>
 </file>
@@ -2461,7 +3417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2480,6 +3436,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2617,7 +3579,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2779,18 +3769,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88B71BE8-24CB-4CBE-9A44-0515B9EB0571}" name="Table6" displayName="Table6" ref="A3:G254" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88B71BE8-24CB-4CBE-9A44-0515B9EB0571}" name="Table6" displayName="Table6" ref="A3:I254" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G254">
     <sortCondition ref="A4:A254"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="26" xr3:uid="{62AA031B-DD73-472A-8ED6-EB4710A68C12}" name="Codi" dataDxfId="6"/>
-    <tableColumn id="36" xr3:uid="{12979B42-6545-4461-B65B-3B3EFD903AA2}" name="Nom" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{59F9B3B5-2DE7-4FFD-B2F1-169729E28FDA}" name="Codi A3" dataDxfId="4"/>
-    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{EA0E7174-2119-4A3D-B113-5BA253613AE8}" name="Subcontinent Codi" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{08FAE73C-EE7B-424B-A2C1-7338FED0CEB0}" name="Subcontinent Nom" dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="26" xr3:uid="{62AA031B-DD73-472A-8ED6-EB4710A68C12}" name="Codi" dataDxfId="8"/>
+    <tableColumn id="36" xr3:uid="{12979B42-6545-4461-B65B-3B3EFD903AA2}" name="Nom" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{59F9B3B5-2DE7-4FFD-B2F1-169729E28FDA}" name="Codi A3" dataDxfId="6"/>
+    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="5"/>
+    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EA0E7174-2119-4A3D-B113-5BA253613AE8}" name="Subcontinent Codi" dataDxfId="3"/>
+    <tableColumn id="30" xr3:uid="{08FAE73C-EE7B-424B-A2C1-7338FED0CEB0}" name="Subcontinent Nom" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{28775C5A-5BA9-43CD-B360-B574C9FAC0CA}" name="Nom en anglès" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6D0D5389-B5AA-4C6C-B1A9-9D7DCC785DCC}" name="Nom en castellà" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3093,7 +4085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2437B9F8-92A3-4EC2-8B66-E7A00C4A92EC}">
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3106,10 +4098,12 @@
     <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="2"/>
+    <col min="8" max="8" width="49.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>805</v>
       </c>
@@ -3119,11 +4113,11 @@
       <c r="E1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>487</v>
       </c>
@@ -3145,8 +4139,14 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>209</v>
       </c>
@@ -3168,8 +4168,14 @@
       <c r="G4" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>505</v>
       </c>
@@ -3191,8 +4197,14 @@
       <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>281</v>
       </c>
@@ -3214,8 +4226,14 @@
       <c r="G6" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>311</v>
       </c>
@@ -3237,8 +4255,14 @@
       <c r="G7" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>106</v>
       </c>
@@ -3260,8 +4284,14 @@
       <c r="G8" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>283</v>
       </c>
@@ -3283,8 +4313,14 @@
       <c r="G9" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -3306,8 +4342,14 @@
       <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>383</v>
       </c>
@@ -3329,8 +4371,14 @@
       <c r="G11" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>175</v>
       </c>
@@ -3352,8 +4400,14 @@
       <c r="G12" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>385</v>
       </c>
@@ -3375,8 +4429,14 @@
       <c r="G13" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>429</v>
       </c>
@@ -3398,8 +4458,14 @@
       <c r="G14" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>154</v>
       </c>
@@ -3421,8 +4487,14 @@
       <c r="G15" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>215</v>
       </c>
@@ -3444,8 +4516,14 @@
       <c r="G16" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>387</v>
       </c>
@@ -3467,8 +4545,14 @@
       <c r="G17" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>265</v>
       </c>
@@ -3490,8 +4574,14 @@
       <c r="G18" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>313</v>
       </c>
@@ -3513,8 +4603,14 @@
       <c r="G19" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>277</v>
       </c>
@@ -3536,8 +4632,14 @@
       <c r="G20" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>274</v>
       </c>
@@ -3559,8 +4661,14 @@
       <c r="G21" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>431</v>
       </c>
@@ -3582,8 +4690,14 @@
       <c r="G22" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>211</v>
       </c>
@@ -3605,8 +4719,14 @@
       <c r="G23" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>437</v>
       </c>
@@ -3628,8 +4748,14 @@
       <c r="G24" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>327</v>
       </c>
@@ -3651,8 +4777,14 @@
       <c r="G25" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>315</v>
       </c>
@@ -3674,8 +4806,14 @@
       <c r="G26" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>117</v>
       </c>
@@ -3697,8 +4835,14 @@
       <c r="G27" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
@@ -3720,8 +4864,14 @@
       <c r="G28" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>133</v>
       </c>
@@ -3743,8 +4893,14 @@
       <c r="G29" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>213</v>
       </c>
@@ -3766,8 +4922,14 @@
       <c r="G30" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>145</v>
       </c>
@@ -3789,8 +4951,14 @@
       <c r="G31" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>439</v>
       </c>
@@ -3812,8 +4980,14 @@
       <c r="G32" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>285</v>
       </c>
@@ -3835,8 +5009,14 @@
       <c r="G33" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
@@ -3858,8 +5038,14 @@
       <c r="G34" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>150</v>
       </c>
@@ -3881,8 +5067,14 @@
       <c r="G35" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>235</v>
       </c>
@@ -3904,8 +5096,14 @@
       <c r="G36" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>272</v>
       </c>
@@ -3927,8 +5125,14 @@
       <c r="G37" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>39</v>
       </c>
@@ -3950,8 +5154,14 @@
       <c r="G38" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>379</v>
       </c>
@@ -3973,8 +5183,14 @@
       <c r="G39" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>238</v>
       </c>
@@ -3996,8 +5212,14 @@
       <c r="G40" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>8</v>
       </c>
@@ -4019,8 +5241,14 @@
       <c r="G41" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>143</v>
       </c>
@@ -4042,8 +5270,14 @@
       <c r="G42" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>41</v>
       </c>
@@ -4065,8 +5299,14 @@
       <c r="G43" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>157</v>
       </c>
@@ -4088,8 +5328,14 @@
       <c r="G44" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>71</v>
       </c>
@@ -4111,8 +5357,14 @@
       <c r="G45" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>10</v>
       </c>
@@ -4134,8 +5386,14 @@
       <c r="G46" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>220</v>
       </c>
@@ -4157,8 +5415,14 @@
       <c r="G47" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>223</v>
       </c>
@@ -4180,8 +5444,14 @@
       <c r="G48" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>43</v>
       </c>
@@ -4203,8 +5473,14 @@
       <c r="G49" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>121</v>
       </c>
@@ -4226,8 +5502,14 @@
       <c r="G50" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>287</v>
       </c>
@@ -4249,8 +5531,14 @@
       <c r="G51" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>369</v>
       </c>
@@ -4272,8 +5560,14 @@
       <c r="G52" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>441</v>
       </c>
@@ -4295,8 +5589,14 @@
       <c r="G53" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>345</v>
       </c>
@@ -4318,8 +5618,14 @@
       <c r="G54" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>73</v>
       </c>
@@ -4341,8 +5647,14 @@
       <c r="G55" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>443</v>
       </c>
@@ -4364,8 +5676,14 @@
       <c r="G56" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>412</v>
       </c>
@@ -4387,8 +5705,14 @@
       <c r="G57" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>123</v>
       </c>
@@ -4410,8 +5734,14 @@
       <c r="G58" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>433</v>
       </c>
@@ -4433,8 +5763,14 @@
       <c r="G59" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>159</v>
       </c>
@@ -4456,8 +5792,14 @@
       <c r="G60" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>75</v>
       </c>
@@ -4479,8 +5821,14 @@
       <c r="G61" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>329</v>
       </c>
@@ -4502,8 +5850,14 @@
       <c r="G62" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>289</v>
       </c>
@@ -4525,8 +5879,14 @@
       <c r="G63" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>291</v>
       </c>
@@ -4548,8 +5908,14 @@
       <c r="G64" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>136</v>
       </c>
@@ -4571,8 +5937,14 @@
       <c r="G65" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>347</v>
       </c>
@@ -4594,8 +5966,14 @@
       <c r="G66" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>35</v>
       </c>
@@ -4617,8 +5995,14 @@
       <c r="G67" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>77</v>
       </c>
@@ -4640,8 +6024,14 @@
       <c r="G68" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>349</v>
       </c>
@@ -4663,8 +6053,14 @@
       <c r="G69" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>391</v>
       </c>
@@ -4686,8 +6082,14 @@
       <c r="G70" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>240</v>
       </c>
@@ -4709,8 +6111,14 @@
       <c r="G71" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>351</v>
       </c>
@@ -4732,8 +6140,14 @@
       <c r="G72" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>317</v>
       </c>
@@ -4755,8 +6169,14 @@
       <c r="G73" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>12</v>
       </c>
@@ -4778,8 +6198,14 @@
       <c r="G74" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>45</v>
       </c>
@@ -4801,8 +6227,14 @@
       <c r="G75" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>218</v>
       </c>
@@ -4824,8 +6256,14 @@
       <c r="G76" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>47</v>
       </c>
@@ -4847,8 +6285,14 @@
       <c r="G77" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>293</v>
       </c>
@@ -4870,8 +6314,14 @@
       <c r="G78" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>295</v>
       </c>
@@ -4893,8 +6343,14 @@
       <c r="G79" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>445</v>
       </c>
@@ -4916,8 +6372,14 @@
       <c r="G80" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>137</v>
       </c>
@@ -4939,8 +6401,14 @@
       <c r="G81" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>508</v>
       </c>
@@ -4962,8 +6430,14 @@
       <c r="G82" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>510</v>
       </c>
@@ -4985,8 +6459,14 @@
       <c r="G83" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>399</v>
       </c>
@@ -5008,8 +6488,14 @@
       <c r="G84" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>125</v>
       </c>
@@ -5031,8 +6517,14 @@
       <c r="G85" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>512</v>
       </c>
@@ -5054,8 +6546,14 @@
       <c r="G86" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>49</v>
       </c>
@@ -5077,8 +6575,14 @@
       <c r="G87" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>14</v>
       </c>
@@ -5100,8 +6604,14 @@
       <c r="G88" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>51</v>
       </c>
@@ -5123,8 +6633,14 @@
       <c r="G89" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>161</v>
       </c>
@@ -5146,8 +6662,14 @@
       <c r="G90" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>371</v>
       </c>
@@ -5169,8 +6691,14 @@
       <c r="G91" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>127</v>
       </c>
@@ -5192,8 +6720,14 @@
       <c r="G92" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>225</v>
       </c>
@@ -5215,8 +6749,14 @@
       <c r="G93" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>331</v>
       </c>
@@ -5238,8 +6778,14 @@
       <c r="G94" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>434</v>
       </c>
@@ -5261,8 +6807,14 @@
       <c r="G95" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>178</v>
       </c>
@@ -5284,8 +6836,14 @@
       <c r="G96" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>242</v>
       </c>
@@ -5307,8 +6865,14 @@
       <c r="G97" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>514</v>
       </c>
@@ -5330,8 +6894,14 @@
       <c r="G98" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>268</v>
       </c>
@@ -5353,8 +6923,14 @@
       <c r="G99" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>373</v>
       </c>
@@ -5376,8 +6952,14 @@
       <c r="G100" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>264</v>
       </c>
@@ -5399,8 +6981,14 @@
       <c r="G101" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>463</v>
       </c>
@@ -5422,8 +7010,14 @@
       <c r="G102" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>156</v>
       </c>
@@ -5445,8 +7039,14 @@
       <c r="G103" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>180</v>
       </c>
@@ -5468,8 +7068,14 @@
       <c r="G104" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
         <v>182</v>
       </c>
@@ -5491,8 +7097,14 @@
       <c r="G105" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>484</v>
       </c>
@@ -5514,8 +7126,14 @@
       <c r="G106" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>402</v>
       </c>
@@ -5537,8 +7155,14 @@
       <c r="G107" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>404</v>
       </c>
@@ -5560,8 +7184,14 @@
       <c r="G108" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>393</v>
       </c>
@@ -5583,8 +7213,14 @@
       <c r="G109" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>275</v>
       </c>
@@ -5606,8 +7242,14 @@
       <c r="G110" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>447</v>
       </c>
@@ -5629,8 +7271,14 @@
       <c r="G111" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>449</v>
       </c>
@@ -5652,8 +7300,14 @@
       <c r="G112" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>196</v>
       </c>
@@ -5675,8 +7329,14 @@
       <c r="G113" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>256</v>
       </c>
@@ -5698,8 +7358,14 @@
       <c r="G114" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>199</v>
       </c>
@@ -5721,8 +7387,14 @@
       <c r="G115" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>414</v>
       </c>
@@ -5744,8 +7416,14 @@
       <c r="G116" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>353</v>
       </c>
@@ -5767,8 +7445,14 @@
       <c r="G117" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>355</v>
       </c>
@@ -5790,8 +7474,14 @@
       <c r="G118" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>416</v>
       </c>
@@ -5813,8 +7503,14 @@
       <c r="G119" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>297</v>
       </c>
@@ -5836,8 +7532,14 @@
       <c r="G120" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>375</v>
       </c>
@@ -5859,8 +7561,14 @@
       <c r="G121" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>226</v>
       </c>
@@ -5882,8 +7590,14 @@
       <c r="G122" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
         <v>516</v>
       </c>
@@ -5905,8 +7619,14 @@
       <c r="G123" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>418</v>
       </c>
@@ -5928,8 +7648,14 @@
       <c r="G124" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="15" t="s">
         <v>184</v>
       </c>
@@ -5951,8 +7677,14 @@
       <c r="G125" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>79</v>
       </c>
@@ -5974,8 +7706,14 @@
       <c r="G126" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
         <v>188</v>
       </c>
@@ -5997,8 +7735,14 @@
       <c r="G127" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>405</v>
       </c>
@@ -6020,8 +7764,14 @@
       <c r="G128" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="15" t="s">
         <v>420</v>
       </c>
@@ -6043,8 +7793,14 @@
       <c r="G129" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>244</v>
       </c>
@@ -6066,8 +7822,14 @@
       <c r="G130" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="15" t="s">
         <v>29</v>
       </c>
@@ -6089,8 +7851,14 @@
       <c r="G131" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>357</v>
       </c>
@@ -6112,8 +7880,14 @@
       <c r="G132" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>422</v>
       </c>
@@ -6135,8 +7909,14 @@
       <c r="G133" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
         <v>53</v>
       </c>
@@ -6158,8 +7938,14 @@
       <c r="G134" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="s">
         <v>109</v>
       </c>
@@ -6181,8 +7967,14 @@
       <c r="G135" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>319</v>
       </c>
@@ -6204,8 +7996,14 @@
       <c r="G136" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
         <v>359</v>
       </c>
@@ -6227,8 +8025,14 @@
       <c r="G137" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
         <v>321</v>
       </c>
@@ -6250,8 +8054,14 @@
       <c r="G138" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>228</v>
       </c>
@@ -6273,8 +8083,14 @@
       <c r="G139" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>299</v>
       </c>
@@ -6296,8 +8112,14 @@
       <c r="G140" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
         <v>81</v>
       </c>
@@ -6319,8 +8141,14 @@
       <c r="G141" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>246</v>
       </c>
@@ -6342,8 +8170,14 @@
       <c r="G142" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
         <v>83</v>
       </c>
@@ -6365,8 +8199,14 @@
       <c r="G143" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>201</v>
       </c>
@@ -6388,8 +8228,14 @@
       <c r="G144" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
         <v>55</v>
       </c>
@@ -6411,8 +8257,14 @@
       <c r="G145" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>300</v>
       </c>
@@ -6434,8 +8286,14 @@
       <c r="G146" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>111</v>
       </c>
@@ -6457,8 +8315,14 @@
       <c r="G147" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>518</v>
       </c>
@@ -6480,8 +8344,14 @@
       <c r="G148" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
         <v>85</v>
       </c>
@@ -6503,8 +8373,14 @@
       <c r="G149" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>57</v>
       </c>
@@ -6526,8 +8402,14 @@
       <c r="G150" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>87</v>
       </c>
@@ -6549,8 +8431,14 @@
       <c r="G151" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>139</v>
       </c>
@@ -6572,8 +8460,14 @@
       <c r="G152" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
         <v>407</v>
       </c>
@@ -6595,8 +8489,14 @@
       <c r="G153" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>89</v>
       </c>
@@ -6618,8 +8518,14 @@
       <c r="G154" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>333</v>
       </c>
@@ -6641,8 +8547,14 @@
       <c r="G155" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>520</v>
       </c>
@@ -6664,8 +8576,14 @@
       <c r="G156" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
         <v>229</v>
       </c>
@@ -6687,8 +8605,14 @@
       <c r="G157" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>302</v>
       </c>
@@ -6710,8 +8634,14 @@
       <c r="G158" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
         <v>451</v>
       </c>
@@ -6733,8 +8663,14 @@
       <c r="G159" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>248</v>
       </c>
@@ -6756,8 +8692,14 @@
       <c r="G160" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
         <v>31</v>
       </c>
@@ -6779,8 +8721,14 @@
       <c r="G161" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>408</v>
       </c>
@@ -6802,8 +8750,14 @@
       <c r="G162" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
         <v>203</v>
       </c>
@@ -6825,8 +8779,14 @@
       <c r="G163" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
         <v>129</v>
       </c>
@@ -6848,8 +8808,14 @@
       <c r="G164" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
         <v>59</v>
       </c>
@@ -6871,8 +8837,14 @@
       <c r="G165" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>61</v>
       </c>
@@ -6894,8 +8866,14 @@
       <c r="G166" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
         <v>466</v>
       </c>
@@ -6917,8 +8895,14 @@
       <c r="G167" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
         <v>361</v>
       </c>
@@ -6940,8 +8924,14 @@
       <c r="G168" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>395</v>
       </c>
@@ -6963,8 +8953,14 @@
       <c r="G169" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>270</v>
       </c>
@@ -6986,8 +8982,14 @@
       <c r="G170" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
         <v>424</v>
       </c>
@@ -7009,8 +9011,14 @@
       <c r="G171" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>323</v>
       </c>
@@ -7032,8 +9040,14 @@
       <c r="G172" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>205</v>
       </c>
@@ -7055,8 +9069,14 @@
       <c r="G173" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>410</v>
       </c>
@@ -7078,8 +9098,14 @@
       <c r="G174" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>426</v>
       </c>
@@ -7101,8 +9127,14 @@
       <c r="G175" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>131</v>
       </c>
@@ -7124,8 +9156,14 @@
       <c r="G176" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
         <v>260</v>
       </c>
@@ -7147,8 +9185,14 @@
       <c r="G177" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>148</v>
       </c>
@@ -7170,8 +9214,14 @@
       <c r="G178" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
         <v>165</v>
       </c>
@@ -7193,8 +9243,14 @@
       <c r="G179" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>468</v>
       </c>
@@ -7216,8 +9272,14 @@
       <c r="G180" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
         <v>470</v>
       </c>
@@ -7239,8 +9301,14 @@
       <c r="G181" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>335</v>
       </c>
@@ -7262,8 +9330,14 @@
       <c r="G182" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
         <v>304</v>
       </c>
@@ -7285,8 +9359,14 @@
       <c r="G183" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>523</v>
       </c>
@@ -7308,8 +9388,14 @@
       <c r="G184" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
         <v>435</v>
       </c>
@@ -7331,8 +9417,14 @@
       <c r="G185" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>363</v>
       </c>
@@ -7354,8 +9446,14 @@
       <c r="G186" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>16</v>
       </c>
@@ -7377,8 +9475,14 @@
       <c r="G187" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>18</v>
       </c>
@@ -7400,8 +9504,14 @@
       <c r="G188" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
         <v>377</v>
       </c>
@@ -7423,8 +9533,14 @@
       <c r="G189" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>525</v>
       </c>
@@ -7446,8 +9562,14 @@
       <c r="G190" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
         <v>337</v>
       </c>
@@ -7469,8 +9591,14 @@
       <c r="G191" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>381</v>
       </c>
@@ -7492,8 +9620,14 @@
       <c r="G192" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>343</v>
       </c>
@@ -7515,8 +9649,14 @@
       <c r="G193" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>112</v>
       </c>
@@ -7538,8 +9678,14 @@
       <c r="G194" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
         <v>63</v>
       </c>
@@ -7561,8 +9707,14 @@
       <c r="G195" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>453</v>
       </c>
@@ -7584,8 +9736,14 @@
       <c r="G196" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>455</v>
       </c>
@@ -7607,8 +9765,14 @@
       <c r="G197" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>457</v>
       </c>
@@ -7630,8 +9794,14 @@
       <c r="G198" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>459</v>
       </c>
@@ -7653,8 +9823,14 @@
       <c r="G199" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>527</v>
       </c>
@@ -7676,8 +9852,14 @@
       <c r="G200" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
         <v>141</v>
       </c>
@@ -7699,8 +9881,14 @@
       <c r="G201" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
         <v>472</v>
       </c>
@@ -7722,8 +9910,14 @@
       <c r="G202" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="15" t="s">
         <v>474</v>
       </c>
@@ -7745,8 +9939,14 @@
       <c r="G203" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
         <v>306</v>
       </c>
@@ -7768,8 +9968,14 @@
       <c r="G204" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
         <v>308</v>
       </c>
@@ -7791,8 +9997,14 @@
       <c r="G205" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>20</v>
       </c>
@@ -7814,8 +10026,14 @@
       <c r="G206" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="15" t="s">
         <v>65</v>
       </c>
@@ -7837,8 +10055,14 @@
       <c r="G207" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>529</v>
       </c>
@@ -7860,8 +10084,14 @@
       <c r="G208" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="15" t="s">
         <v>91</v>
       </c>
@@ -7883,8 +10113,14 @@
       <c r="G209" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
         <v>67</v>
       </c>
@@ -7906,8 +10142,14 @@
       <c r="G210" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>250</v>
       </c>
@@ -7929,8 +10171,14 @@
       <c r="G211" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>461</v>
       </c>
@@ -7952,8 +10200,14 @@
       <c r="G212" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
         <v>427</v>
       </c>
@@ -7975,8 +10229,14 @@
       <c r="G213" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>93</v>
       </c>
@@ -7998,8 +10258,14 @@
       <c r="G214" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
         <v>207</v>
       </c>
@@ -8021,8 +10287,14 @@
       <c r="G215" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>33</v>
       </c>
@@ -8044,8 +10316,14 @@
       <c r="G216" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>105</v>
       </c>
@@ -8067,8 +10345,14 @@
       <c r="G217" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>114</v>
       </c>
@@ -8090,8 +10374,14 @@
       <c r="G218" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>365</v>
       </c>
@@ -8113,8 +10403,14 @@
       <c r="G219" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>325</v>
       </c>
@@ -8136,8 +10432,14 @@
       <c r="G220" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
         <v>163</v>
       </c>
@@ -8159,8 +10461,14 @@
       <c r="G221" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>530</v>
       </c>
@@ -8182,8 +10490,14 @@
       <c r="G222" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="15" t="s">
         <v>190</v>
       </c>
@@ -8205,8 +10519,14 @@
       <c r="G223" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>252</v>
       </c>
@@ -8228,8 +10548,14 @@
       <c r="G224" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="15" t="s">
         <v>231</v>
       </c>
@@ -8251,8 +10577,14 @@
       <c r="G225" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>95</v>
       </c>
@@ -8274,8 +10606,14 @@
       <c r="G226" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="15" t="s">
         <v>174</v>
       </c>
@@ -8297,8 +10635,14 @@
       <c r="G227" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
         <v>97</v>
       </c>
@@ -8320,8 +10664,14 @@
       <c r="G228" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="15" t="s">
         <v>258</v>
       </c>
@@ -8343,8 +10693,14 @@
       <c r="G229" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>69</v>
       </c>
@@ -8366,8 +10722,14 @@
       <c r="G230" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
         <v>476</v>
       </c>
@@ -8389,8 +10751,14 @@
       <c r="G231" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>478</v>
       </c>
@@ -8412,8 +10780,14 @@
       <c r="G232" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="15" t="s">
         <v>171</v>
       </c>
@@ -8435,8 +10809,14 @@
       <c r="G233" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
         <v>115</v>
       </c>
@@ -8458,8 +10838,14 @@
       <c r="G234" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="15" t="s">
         <v>192</v>
       </c>
@@ -8481,8 +10867,14 @@
       <c r="G235" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
         <v>367</v>
       </c>
@@ -8504,8 +10896,14 @@
       <c r="G236" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="15" t="s">
         <v>480</v>
       </c>
@@ -8527,8 +10925,14 @@
       <c r="G237" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
         <v>22</v>
       </c>
@@ -8550,8 +10954,14 @@
       <c r="G238" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="15" t="s">
         <v>339</v>
       </c>
@@ -8573,8 +10983,14 @@
       <c r="G239" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
         <v>341</v>
       </c>
@@ -8596,8 +11012,14 @@
       <c r="G240" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="15" t="s">
         <v>99</v>
       </c>
@@ -8619,8 +11041,14 @@
       <c r="G241" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
         <v>152</v>
       </c>
@@ -8642,8 +11070,14 @@
       <c r="G242" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
         <v>194</v>
       </c>
@@ -8665,8 +11099,14 @@
       <c r="G243" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
         <v>397</v>
       </c>
@@ -8688,8 +11128,14 @@
       <c r="G244" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
         <v>169</v>
       </c>
@@ -8711,8 +11157,14 @@
       <c r="G245" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>254</v>
       </c>
@@ -8734,8 +11186,14 @@
       <c r="G246" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>482</v>
       </c>
@@ -8757,8 +11215,14 @@
       <c r="G247" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>167</v>
       </c>
@@ -8780,8 +11244,14 @@
       <c r="G248" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
         <v>233</v>
       </c>
@@ -8803,8 +11273,14 @@
       <c r="G249" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>389</v>
       </c>
@@ -8826,8 +11302,14 @@
       <c r="G250" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
         <v>101</v>
       </c>
@@ -8849,8 +11331,14 @@
       <c r="G251" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
         <v>103</v>
       </c>
@@ -8872,8 +11360,14 @@
       <c r="G252" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="15" t="s">
         <v>503</v>
       </c>
@@ -8895,8 +11389,14 @@
       <c r="G253" s="5" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>504</v>
       </c>
@@ -8918,8 +11418,15 @@
       <c r="G254" s="5" t="s">
         <v>280</v>
       </c>
+      <c r="H254" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>1068</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
